--- a/SprintBacklog/Sprint4.xlsx
+++ b/SprintBacklog/Sprint4.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="33">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -108,13 +108,31 @@
     <t>Database code</t>
   </si>
   <si>
-    <t>3) The user shall be able to edit a recipe</t>
-  </si>
-  <si>
     <t>Mon 2nd Feb 2015 - Mon 16th Feb 2015</t>
   </si>
   <si>
     <t>Edit Recipe View</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The user shall be able to edit a recipe</t>
+  </si>
+  <si>
+    <t>The user shall be able to add a cookbook</t>
+  </si>
+  <si>
+    <t>Add a cookbook view</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Contributer view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sync code </t>
+  </si>
+  <si>
+    <t>The user shall be able to add and view contributers (Server went down on Sun 15th and Mon 16th  limited progress)</t>
   </si>
 </sst>
 </file>
@@ -451,6 +469,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -535,13 +560,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -563,13 +581,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -634,6 +645,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -976,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,7 +1013,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>13</v>
@@ -1014,7 +1032,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -1070,13 +1088,13 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="8">
         <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="8">
         <v>15</v>
@@ -1099,14 +1117,30 @@
       <c r="J6" s="8">
         <v>3</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
+      <c r="K6" s="8">
+        <v>3</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1116,7 +1150,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="8">
         <v>25</v>
@@ -1137,10 +1171,32 @@
         <v>8</v>
       </c>
       <c r="J7" s="8">
-        <v>2</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="K7" s="8">
+        <v>6</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1180,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1273,359 +1329,1047 @@
       <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="8">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8">
+        <v>20</v>
+      </c>
+      <c r="F12" s="8">
+        <v>20</v>
+      </c>
+      <c r="G12" s="8">
+        <v>20</v>
+      </c>
+      <c r="H12" s="8">
+        <v>20</v>
+      </c>
+      <c r="I12" s="8">
+        <v>20</v>
+      </c>
+      <c r="J12" s="8">
+        <v>20</v>
+      </c>
+      <c r="K12" s="8">
+        <v>20</v>
+      </c>
+      <c r="L12" s="8">
+        <v>20</v>
+      </c>
+      <c r="M12" s="8">
+        <v>20</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="8">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8">
+        <v>10</v>
+      </c>
+      <c r="G13" s="8">
+        <v>10</v>
+      </c>
+      <c r="H13" s="8">
+        <v>10</v>
+      </c>
+      <c r="I13" s="8">
+        <v>10</v>
+      </c>
+      <c r="J13" s="8">
+        <v>10</v>
+      </c>
+      <c r="K13" s="8">
+        <v>10</v>
+      </c>
+      <c r="L13" s="8">
+        <v>10</v>
+      </c>
+      <c r="M13" s="8">
+        <v>10</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="8">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8">
+        <v>20</v>
+      </c>
+      <c r="E14" s="8">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8">
+        <v>20</v>
+      </c>
+      <c r="G14" s="8">
+        <v>20</v>
+      </c>
+      <c r="H14" s="8">
+        <v>20</v>
+      </c>
+      <c r="I14" s="8">
+        <v>20</v>
+      </c>
+      <c r="J14" s="8">
+        <v>20</v>
+      </c>
+      <c r="K14" s="8">
+        <v>20</v>
+      </c>
+      <c r="L14" s="8">
+        <v>20</v>
+      </c>
+      <c r="M14" s="8">
+        <v>20</v>
+      </c>
+      <c r="N14" s="8">
+        <v>10</v>
+      </c>
+      <c r="O14" s="8">
+        <v>5</v>
+      </c>
+      <c r="P14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0</v>
+      </c>
+      <c r="R14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="8">
+        <v>3</v>
+      </c>
+      <c r="E15" s="8">
+        <v>3</v>
+      </c>
+      <c r="F15" s="8">
+        <v>3</v>
+      </c>
+      <c r="G15" s="8">
+        <v>3</v>
+      </c>
+      <c r="H15" s="8">
+        <v>3</v>
+      </c>
+      <c r="I15" s="8">
+        <v>3</v>
+      </c>
+      <c r="J15" s="8">
+        <v>3</v>
+      </c>
+      <c r="K15" s="8">
+        <v>3</v>
+      </c>
+      <c r="L15" s="8">
+        <v>3</v>
+      </c>
+      <c r="M15" s="8">
+        <v>3</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>0</v>
+      </c>
+      <c r="R15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="8" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="8">
+        <v>25</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="8">
+        <v>25</v>
+      </c>
+      <c r="E18" s="8">
+        <v>25</v>
+      </c>
+      <c r="F18" s="8">
+        <v>25</v>
+      </c>
+      <c r="G18" s="8">
+        <v>25</v>
+      </c>
+      <c r="H18" s="8">
+        <v>25</v>
+      </c>
+      <c r="I18" s="8">
+        <v>25</v>
+      </c>
+      <c r="J18" s="8">
+        <v>25</v>
+      </c>
+      <c r="K18" s="8">
+        <v>25</v>
+      </c>
+      <c r="L18" s="8">
+        <v>25</v>
+      </c>
+      <c r="M18" s="8">
+        <v>25</v>
+      </c>
+      <c r="N18" s="8">
+        <v>25</v>
+      </c>
+      <c r="O18" s="8">
+        <v>25</v>
+      </c>
+      <c r="P18" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>0</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="8">
+        <v>10</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="8">
+        <v>10</v>
+      </c>
+      <c r="E19" s="8">
+        <v>10</v>
+      </c>
+      <c r="F19" s="8">
+        <v>10</v>
+      </c>
+      <c r="G19" s="8">
+        <v>10</v>
+      </c>
+      <c r="H19" s="8">
+        <v>10</v>
+      </c>
+      <c r="I19" s="8">
+        <v>10</v>
+      </c>
+      <c r="J19" s="8">
+        <v>10</v>
+      </c>
+      <c r="K19" s="8">
+        <v>10</v>
+      </c>
+      <c r="L19" s="8">
+        <v>10</v>
+      </c>
+      <c r="M19" s="8">
+        <v>10</v>
+      </c>
+      <c r="N19" s="8">
+        <v>10</v>
+      </c>
+      <c r="O19" s="8">
+        <v>10</v>
+      </c>
+      <c r="P19" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="8">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="8">
+        <v>3</v>
+      </c>
+      <c r="E20" s="8">
+        <v>3</v>
+      </c>
+      <c r="F20" s="8">
+        <v>3</v>
+      </c>
+      <c r="G20" s="8">
+        <v>3</v>
+      </c>
+      <c r="H20" s="8">
+        <v>3</v>
+      </c>
+      <c r="I20" s="8">
+        <v>3</v>
+      </c>
+      <c r="J20" s="8">
+        <v>3</v>
+      </c>
+      <c r="K20" s="8">
+        <v>3</v>
+      </c>
+      <c r="L20" s="8">
+        <v>3</v>
+      </c>
+      <c r="M20" s="8">
+        <v>3</v>
+      </c>
+      <c r="N20" s="8">
+        <v>3</v>
+      </c>
+      <c r="O20" s="8">
+        <v>3</v>
+      </c>
+      <c r="P20" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0</v>
+      </c>
+      <c r="R20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="8">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="8">
+        <v>20</v>
+      </c>
+      <c r="E21" s="8">
+        <v>20</v>
+      </c>
+      <c r="F21" s="8">
+        <v>20</v>
+      </c>
+      <c r="G21" s="8">
+        <v>20</v>
+      </c>
+      <c r="H21" s="8">
+        <v>20</v>
+      </c>
+      <c r="I21" s="8">
+        <v>20</v>
+      </c>
+      <c r="J21" s="8">
+        <v>20</v>
+      </c>
+      <c r="K21" s="8">
+        <v>20</v>
+      </c>
+      <c r="L21" s="8">
+        <v>20</v>
+      </c>
+      <c r="M21" s="8">
+        <v>20</v>
+      </c>
+      <c r="N21" s="8">
+        <v>20</v>
+      </c>
+      <c r="O21" s="8">
+        <v>20</v>
+      </c>
+      <c r="P21" s="8">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>20</v>
+      </c>
+      <c r="R21" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B18">
-        <f>SUM(B4:B14)</f>
-        <v>66</v>
-      </c>
-      <c r="D18">
-        <f>SUM(D4:D17)</f>
-        <v>66</v>
-      </c>
-      <c r="E18">
-        <f>SUM(E4:E14)</f>
-        <v>54</v>
-      </c>
-      <c r="F18">
-        <f>SUM(F4:F14)</f>
-        <v>54</v>
-      </c>
-      <c r="G18">
-        <f>SUM(G4:G14)</f>
-        <v>38</v>
-      </c>
-      <c r="H18">
-        <f>SUM(H4:H14)</f>
-        <v>18</v>
-      </c>
-      <c r="I18">
-        <f>SUM(I4:I14)</f>
-        <v>11</v>
-      </c>
-      <c r="J18">
-        <f>SUM(J4:J14)</f>
-        <v>5</v>
-      </c>
-      <c r="K18">
-        <f>SUM(K4:K17)</f>
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <f>SUM(L4:L17)</f>
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <f>SUM(M4:M17)</f>
-        <v>3</v>
-      </c>
-      <c r="N18">
-        <f>SUM(N4:N17)</f>
-        <v>3</v>
-      </c>
-      <c r="O18">
-        <f>SUM(O4:O17)</f>
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <f>SUM(P4:P17)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f>SUM(Q4:Q17)</f>
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <f>SUM(R1:R14)</f>
-        <v>0</v>
+      <c r="B28">
+        <f>SUM(B4:B24)</f>
+        <v>177</v>
+      </c>
+      <c r="D28">
+        <f>SUM(D4:D27)</f>
+        <v>177</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:J28" si="0">SUM(E4:E24)</f>
+        <v>165</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ref="K28:Q28" si="1">SUM(K4:K27)</f>
+        <v>120</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="R28">
+        <f>SUM(R1:R24)</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
+  <conditionalFormatting sqref="C26">
+    <cfRule type="cellIs" dxfId="59" priority="77" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+  <conditionalFormatting sqref="C27">
+    <cfRule type="containsText" dxfId="58" priority="74" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="75" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="76" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="cellIs" dxfId="55" priority="73" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+  <conditionalFormatting sqref="C25">
+    <cfRule type="containsText" dxfId="54" priority="70" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="71" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="72" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="51" priority="69" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="34" priority="46" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="47" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="48" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C16)))</formula>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="containsText" dxfId="50" priority="78" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="79" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="80" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
+    <cfRule type="containsText" dxfId="47" priority="62" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="63" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="64" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="44" priority="61" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="containsText" dxfId="43" priority="58" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="59" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="60" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="40" priority="57" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C10">
+    <cfRule type="containsText" dxfId="39" priority="54" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="55" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="56" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C10">
+    <cfRule type="cellIs" dxfId="36" priority="53" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="35" priority="50" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="51" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="52" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="32" priority="49" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
     <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",C12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",C12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+      <formula>NOT(ISERROR(SEARCH("To Do",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
     <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
+  <conditionalFormatting sqref="C13">
     <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
+      <formula>NOT(ISERROR(SEARCH("To Do",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
     <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C10">
+  <conditionalFormatting sqref="C15">
     <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",C15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",C15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C10">
+      <formula>NOT(ISERROR(SEARCH("To Do",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
     <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
+  <conditionalFormatting sqref="C14">
     <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C8)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",C14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C8)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",C14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
+      <formula>NOT(ISERROR(SEARCH("To Do",C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1633,7 +2377,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3">
       <formula1>To_Do</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C17 C6:C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C27 C6:C10 C12:C15 C18:C21">
       <formula1>Todos</formula1>
     </dataValidation>
   </dataValidations>
